--- a/Unsupervised Learning/Project3.xlsx
+++ b/Unsupervised Learning/Project3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spryte\Documents\Gatech\cs4641\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spryte\Documents\Gatech\CS4641-Machine-Learning\Unsupervised Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Clustering" sheetId="1" r:id="rId1"/>
     <sheet name="PCA" sheetId="2" r:id="rId2"/>
-    <sheet name="Random Projection" sheetId="3" r:id="rId3"/>
-    <sheet name="InfoGain" sheetId="4" r:id="rId4"/>
+    <sheet name="ICA" sheetId="5" r:id="rId3"/>
+    <sheet name="Random Projection" sheetId="3" r:id="rId4"/>
+    <sheet name="InfoGain" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="21">
   <si>
     <t>Algorithm</t>
   </si>
@@ -82,6 +83,15 @@
   <si>
     <t>Gaussian</t>
   </si>
+  <si>
+    <t xml:space="preserve">% Incorrectly Clustered </t>
+  </si>
+  <si>
+    <t>% Error</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +135,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -221,6 +258,1205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Neural Net Accuracy with PCA and Clustering</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K-Means</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PCA!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PCA!$H$8:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34A7-43DB-B0FC-5E008AD50DA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PCA!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PCA!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34A7-43DB-B0FC-5E008AD50DA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>No Clustering</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PCA!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PCA!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34A7-43DB-B0FC-5E008AD50DA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No PCA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PCA!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PCA!$F$17:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34A7-43DB-B0FC-5E008AD50DA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323606720"/>
+        <c:axId val="323602784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="323606720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Variance Covered</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323602784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323602784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323606720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>184149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA75AA2-A8DF-447C-AE6D-C6A12A672AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -236,11 +1472,60 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1116" displayName="Table1116" ref="B18:C21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table814" displayName="Table814" ref="E3:H12" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="E3:H12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Variance" dataDxfId="16"/>
+    <tableColumn id="2" name="Algorithm" dataDxfId="15"/>
+    <tableColumn id="3" name="% Incorrectly Clustered"/>
+    <tableColumn id="4" name="% Error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1116" displayName="Table1116" ref="B18:C21" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B18:C21"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Distribution" dataDxfId="1"/>
-    <tableColumn id="2" name="# Selected Attributes" dataDxfId="0"/>
+    <tableColumn id="1" name="Distribution" dataDxfId="19"/>
+    <tableColumn id="2" name="# Selected Attributes" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table915" displayName="Table915" ref="E18:H27" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="E18:H27"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Variance" dataDxfId="13"/>
+    <tableColumn id="2" name="Algorithm" dataDxfId="12"/>
+    <tableColumn id="3" name="% Incorrectly Clustered"/>
+    <tableColumn id="4" name="% Error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B2:D5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:D5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Algorithm" dataDxfId="11"/>
+    <tableColumn id="2" name="% Incorrectly Clustered " dataDxfId="10"/>
+    <tableColumn id="3" name="% Error" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B7:C9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B7:C9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Algorithm" dataDxfId="7"/>
+    <tableColumn id="2" name="% Incorrectly Clustered" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -259,22 +1544,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:C7" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B3:C7" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="B3:C7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Variance Covered " dataDxfId="27"/>
-    <tableColumn id="2" name="# Selected Attributes" dataDxfId="26"/>
+    <tableColumn id="1" name="Variance Covered " dataDxfId="34"/>
+    <tableColumn id="2" name="# Selected Attributes" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="E3:H15" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="E3:H15" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="E3:H15"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Variance" dataDxfId="23"/>
-    <tableColumn id="2" name="Algorithm" dataDxfId="22"/>
+    <tableColumn id="1" name="Variance" dataDxfId="1"/>
+    <tableColumn id="2" name="Algorithm" dataDxfId="0"/>
     <tableColumn id="3" name="% Incorrectly Clustered"/>
     <tableColumn id="4" name="% Accuracy"/>
   </tableColumns>
@@ -283,11 +1568,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E21:H33" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="E21:H33" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="E21:H33"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Variance" dataDxfId="20"/>
-    <tableColumn id="2" name="Algorithm" dataDxfId="19"/>
+    <tableColumn id="1" name="Variance" dataDxfId="31"/>
+    <tableColumn id="2" name="Algorithm" dataDxfId="30"/>
     <tableColumn id="3" name="% Incorrectly Clustered"/>
     <tableColumn id="4" name="% Accuracy"/>
   </tableColumns>
@@ -296,48 +1581,45 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B22:C26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B22:C26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B22:C26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Variance Covered" dataDxfId="17"/>
-    <tableColumn id="2" name="# Selected Attributes" dataDxfId="16"/>
+    <tableColumn id="1" name="Variance Covered" dataDxfId="27"/>
+    <tableColumn id="2" name="# Selected Attributes" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table613" displayName="Table613" ref="B3:C6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B3:C6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Distribution" dataDxfId="11"/>
-    <tableColumn id="2" name="# Selected Attributes" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="C3:E6" totalsRowShown="0">
+  <autoFilter ref="C3:E6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Algorithm"/>
+    <tableColumn id="2" name="% Incorrectly Clustered"/>
+    <tableColumn id="3" name="% Error"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table814" displayName="Table814" ref="E3:H12" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="E3:H12"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Variance" dataDxfId="8"/>
-    <tableColumn id="2" name="Algorithm" dataDxfId="7"/>
-    <tableColumn id="3" name="% Incorrectly Clustered"/>
-    <tableColumn id="4" name="% Accuracy"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="C13:D16" totalsRowShown="0">
+  <autoFilter ref="C13:D16"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Algorithm"/>
+    <tableColumn id="2" name="% Incorrectly Clustered"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table915" displayName="Table915" ref="E18:H27" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="E18:H27"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Variance" dataDxfId="5"/>
-    <tableColumn id="2" name="Algorithm" dataDxfId="4"/>
-    <tableColumn id="3" name="% Incorrectly Clustered"/>
-    <tableColumn id="4" name="% Accuracy"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table613" displayName="Table613" ref="B3:C6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="B3:C6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Distribution" dataDxfId="23"/>
+    <tableColumn id="2" name="# Selected Attributes" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H33"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:G33"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,6 +2046,555 @@
     <col min="8" max="8" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>36.86</v>
+      </c>
+      <c r="I4">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>45.178100000000001</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>45.091200000000001</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>45.004300000000001</v>
+      </c>
+      <c r="H10">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>45.004300000000001</v>
+      </c>
+      <c r="H11">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E12" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>49.348399999999998</v>
+      </c>
+      <c r="H12">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>49.261499999999998</v>
+      </c>
+      <c r="H13">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>46.568199999999997</v>
+      </c>
+      <c r="H14">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>40.660299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>39.012900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E27" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>39.021900000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>39.021900000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>39.021900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E30" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>43.184199999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E31" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>43.184199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>43.080100000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>43.184199999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="5" width="22.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>46.655099999999997</v>
+      </c>
+      <c r="E5">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>42.745399999999997</v>
+      </c>
+      <c r="E6">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>27.3673</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>24.037500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="5" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="15" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
@@ -771,7 +2602,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -786,18 +2617,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
-        <v>0.95</v>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.95</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -805,16 +2636,19 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H4">
+        <v>27.11</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>0.85</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.85</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -822,16 +2656,19 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H5">
+        <v>27.62</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>0.75</v>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.75</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -839,289 +2676,234 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H6">
+        <v>26.34</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>44.4831</v>
+      </c>
+      <c r="H7">
+        <v>12.79</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="1">
-        <v>0.95</v>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G8">
-        <v>45.178100000000001</v>
+        <v>48.218899999999998</v>
+      </c>
+      <c r="H8">
+        <v>145.44999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="1">
-        <v>0.85</v>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>45.091200000000001</v>
+        <v>43.701099999999997</v>
+      </c>
+      <c r="H9">
+        <v>14.83</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="1">
-        <v>0.75</v>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>45.004300000000001</v>
+        <v>42.311</v>
+      </c>
+      <c r="H10">
+        <v>12.79</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="1">
-        <v>0.5</v>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>45.004300000000001</v>
+        <v>49.435299999999998</v>
+      </c>
+      <c r="H11">
+        <v>14.45</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="1">
-        <v>0.95</v>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>49.348399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>46.133800000000001</v>
+      </c>
+      <c r="H12">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>49.261499999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E14" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>46.568199999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>40.660299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.95</v>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>38.293399999999998</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C23" s="1">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.85</v>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>34.339199999999998</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.75</v>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>34.5473</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="1">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.5</v>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>39.854300000000002</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.95</v>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>39.012900000000002</v>
+        <v>33.610799999999998</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E27" s="1">
-        <v>0.85</v>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>39.021900000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E28" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>39.021900000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <v>39.021900000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E30" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>43.184199999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E31" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>43.184199999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>43.080100000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>43.184199999999997</v>
+        <v>33.610799999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1135,277 +2917,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="5" max="8" width="21.7265625" customWidth="1"/>
+    <col min="2" max="3" width="21.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44.3093</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40.920900000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C8" s="1">
+        <v>21.748200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="1">
+        <v>19.562999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>